--- a/biology/Zoologie/Amphion_floridensis/Amphion_floridensis.xlsx
+++ b/biology/Zoologie/Amphion_floridensis/Amphion_floridensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Amphion floridensis  regroupe des lépidoptères (papillons) de la famille des Sphingidae, de la sous-famille des Macroglossinae, de la tribu des Macroglossini et du genre Amphion.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le papillon est facilement reconnu par les deux bandes crème très réfléchissantes qui barrent la partie basse de l'abdomen. L'envergure atteint 37-55 mm.
 			Amphion floridensis ♂ MHNT
@@ -547,7 +561,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 Il vit dans l'est des États-Unis et au Canada ; son aire de répartition peut s'étendre jusqu’au Mexique.</t>
@@ -578,13 +594,15 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Période de vol
 Les adultes volent d'avril à juillet en une génération dans le nord et en deux générations dans le sud.
 Alimentation
 Les adultes se nourrissent du nectar des espèces de fleurs : Syringa vulgaris, Geranium robertianum, Kolkwitzia amabilis, Philadelphus coronarius, et du genre Phlox.
-Les chenilles se nourrissent sur les genres Vitis, Ampelopsis et Capsicum[1].</t>
+Les chenilles se nourrissent sur les genres Vitis, Ampelopsis et Capsicum.</t>
         </is>
       </c>
     </row>
@@ -612,12 +630,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par l'entomologiste Pieter Cramer, en 1777 sous le nom de Sphinx nessus[2], elle a été reclassée par l'entomologiste Jakob Hübner dans le genre Amphion en 1819, puis par Benjamin Preston Clark en 1920.
-La localité type est la Virginie.
-Synonymie
-Sphinx nessus Cramer, 1777
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce a été décrite par l'entomologiste Pieter Cramer, en 1777 sous le nom de Sphinx nessus, elle a été reclassée par l'entomologiste Jakob Hübner dans le genre Amphion en 1819, puis par Benjamin Preston Clark en 1920.
+La localité type est la Virginie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amphion_floridensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amphion_floridensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sphinx nessus Cramer, 1777
 Amphion nessus (Cramer, 1777)</t>
         </is>
       </c>
